--- a/Feature01_realizar_login/Login1.xlsx
+++ b/Feature01_realizar_login/Login1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\Aulas Faculdade\ProjetoUC\Feature01_realizar_login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469EFBFB-82D7-4C37-944C-3B918044EF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B975B7CD-AD21-4717-8AC9-BCEDF2C4069D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
